--- a/meeting/file/25_3_30_excel.xlsx
+++ b/meeting/file/25_3_30_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\TronclassProMax\TronclassProMax\meeting\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F29FA5F-D3E6-448C-9118-CD1D0EB4ACB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9596C88A-45CB-4FCD-88AF-CC7200A75CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFC119B7-54EC-49B6-9B42-17A349AFA24D}"/>
   </bookViews>
@@ -44,15 +44,9 @@
     <t>日期區間</t>
   </si>
   <si>
-    <t>智能合約組（3人）</t>
-  </si>
-  <si>
     <t>前端組（1人）</t>
   </si>
   <si>
-    <t>後端組（1人）</t>
-  </si>
-  <si>
     <t>備註</t>
   </si>
   <si>
@@ -252,6 +246,14 @@
   </si>
   <si>
     <t xml:space="preserve">             [ 後端 Node.js + DB + API（兌換紀錄、全文內容、發信）]</t>
+  </si>
+  <si>
+    <t>智能合約組（2人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>後端組（2人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -332,11 +334,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,7 +677,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D11"/>
+      <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -695,352 +697,337 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>11</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>9</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>10</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>11</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D3"/>
@@ -1050,6 +1037,21 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
